--- a/src/test/resources/testData/batch14excel.xlsx
+++ b/src/test/resources/testData/batch14excel.xlsx
@@ -39,15 +39,9 @@
     <t>confirmPassword</t>
   </si>
   <si>
-    <t>pak</t>
-  </si>
-  <si>
     <t>ms</t>
   </si>
   <si>
-    <t>istan</t>
-  </si>
-  <si>
     <t>pak123</t>
   </si>
   <si>
@@ -57,16 +51,22 @@
     <t>C:\Users\camro\OneDrive\Desktop\images.jpg</t>
   </si>
   <si>
-    <t>pak1</t>
-  </si>
-  <si>
-    <t>istan1</t>
-  </si>
-  <si>
     <t>pak1234</t>
   </si>
   <si>
     <t>C:\Users\camro\OneDrive\Desktop\images.png</t>
+  </si>
+  <si>
+    <t>istan12</t>
+  </si>
+  <si>
+    <t>istan112</t>
+  </si>
+  <si>
+    <t>pak1235</t>
+  </si>
+  <si>
+    <t>pak12346</t>
   </si>
 </sst>
 </file>
@@ -401,7 +401,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -439,48 +439,48 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>14</v>
       </c>
       <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
